--- a/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Wage_Earners_Share_of_GDP_W270RE1A156NBEA.xlsx
+++ b/Project2_Maroofi_Irwin/data_staging/inflation_excel_series/Wage_Earners_Share_of_GDP_W270RE1A156NBEA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
   <si>
     <t>realtime_start</t>
   </si>
@@ -28,7 +28,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>2021-08-03</t>
+    <t>2022-09-13</t>
   </si>
   <si>
     <t>1948-01-01</t>
@@ -247,6 +247,9 @@
     <t>2019-01-01</t>
   </si>
   <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
     <t>49.3</t>
   </si>
   <si>
@@ -346,43 +349,43 @@
     <t>46.1</t>
   </si>
   <si>
+    <t>44.7</t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
     <t>44.8</t>
   </si>
   <si>
-    <t>44.3</t>
-  </si>
-  <si>
-    <t>43.4</t>
-  </si>
-  <si>
-    <t>43.2</t>
-  </si>
-  <si>
-    <t>44.9</t>
-  </si>
-  <si>
-    <t>43.8</t>
+    <t>43.7</t>
+  </si>
+  <si>
+    <t>42.5</t>
+  </si>
+  <si>
+    <t>42.4</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>41.9</t>
   </si>
   <si>
     <t>42.6</t>
   </si>
   <si>
-    <t>42.4</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>41.9</t>
-  </si>
-  <si>
-    <t>42.5</t>
-  </si>
-  <si>
-    <t>42.9</t>
-  </si>
-  <si>
     <t>43.0</t>
+  </si>
+  <si>
+    <t>43.1</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -777,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -794,7 +797,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -811,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -828,7 +831,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -845,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -862,7 +865,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -879,7 +882,7 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -896,7 +899,7 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -913,7 +916,7 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -930,7 +933,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -947,7 +950,7 @@
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -964,7 +967,7 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -981,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -998,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1015,7 +1018,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1032,7 +1035,7 @@
         <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1049,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1066,7 +1069,7 @@
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1083,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1100,7 +1103,7 @@
         <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1117,7 +1120,7 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1134,7 +1137,7 @@
         <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1151,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1168,7 +1171,7 @@
         <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1185,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1202,7 +1205,7 @@
         <v>30</v>
       </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1219,7 +1222,7 @@
         <v>31</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1236,7 +1239,7 @@
         <v>32</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1253,7 +1256,7 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1270,7 +1273,7 @@
         <v>34</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1287,7 +1290,7 @@
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1304,7 +1307,7 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1321,7 +1324,7 @@
         <v>37</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1338,7 +1341,7 @@
         <v>38</v>
       </c>
       <c r="E35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1355,7 +1358,7 @@
         <v>39</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1372,7 +1375,7 @@
         <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1389,7 +1392,7 @@
         <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1406,7 +1409,7 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1423,7 +1426,7 @@
         <v>43</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1440,7 +1443,7 @@
         <v>44</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1457,7 +1460,7 @@
         <v>45</v>
       </c>
       <c r="E42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1474,7 +1477,7 @@
         <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1491,7 +1494,7 @@
         <v>47</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1508,7 +1511,7 @@
         <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1525,7 +1528,7 @@
         <v>49</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1542,7 +1545,7 @@
         <v>50</v>
       </c>
       <c r="E47" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1559,7 +1562,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1576,7 +1579,7 @@
         <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1593,7 +1596,7 @@
         <v>53</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1610,7 +1613,7 @@
         <v>54</v>
       </c>
       <c r="E51" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1627,7 +1630,7 @@
         <v>55</v>
       </c>
       <c r="E52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1644,7 +1647,7 @@
         <v>56</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1661,7 +1664,7 @@
         <v>57</v>
       </c>
       <c r="E54" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1678,7 +1681,7 @@
         <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1695,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1712,7 +1715,7 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1729,7 +1732,7 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1746,7 +1749,7 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1763,7 +1766,7 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1780,7 +1783,7 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1797,7 +1800,7 @@
         <v>65</v>
       </c>
       <c r="E62" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1814,7 +1817,7 @@
         <v>66</v>
       </c>
       <c r="E63" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1831,7 +1834,7 @@
         <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1848,7 +1851,7 @@
         <v>68</v>
       </c>
       <c r="E65" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1865,7 +1868,7 @@
         <v>69</v>
       </c>
       <c r="E66" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1882,7 +1885,7 @@
         <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1899,7 +1902,7 @@
         <v>71</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1916,7 +1919,7 @@
         <v>72</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1933,7 +1936,7 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1950,7 +1953,7 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1967,7 +1970,7 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1984,7 +1987,24 @@
         <v>76</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" t="s">
+        <v>77</v>
+      </c>
+      <c r="E74" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
